--- a/medicine/Enfance/Légendes_d'Ashur-Sîn/Légendes_d'Ashur-Sîn.xlsx
+++ b/medicine/Enfance/Légendes_d'Ashur-Sîn/Légendes_d'Ashur-Sîn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9gendes_d%27Ashur-S%C3%AEn</t>
+          <t>Légendes_d'Ashur-Sîn</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Légendes d'Ashur-Sîn est une série de romans d'heroic fantasy de l’écrivaine québécoise Anne Robillard. Elle est la suite des séries à succès Les Chevaliers d'Émeraude, Les Héritiers d'Enkidiev et Les Chevaliers d'Antarès.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9gendes_d%27Ashur-S%C3%AEn</t>
+          <t>Légendes_d'Ashur-Sîn</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Quatre années après la fin de la guerre contre les Aculéos et la défaite de l'armée de Javad, Wellan et Sierra décident de se rendre à Enkidiev. Plus tard, c'est en compagnie de Dashaé et d'Onyx que les deux commandants tenteront de retourner à Alnilam.  Là-bas, un peuple mystérieux aura besoin de leur aide. Qui les guerriers rencontreront-ils dans cet endroit inconnu, pourront-ils rentrer chez eux, et surtout, que devront-ils faire pour y arriver...?
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9gendes_d%27Ashur-S%C3%AEn</t>
+          <t>Légendes_d'Ashur-Sîn</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aranéa, Wellan Inc., 2021, 344 p.  (ISBN 978-2-924442-85-2)Réédité aux éditions Michel Lafon en 2022, 330 p.  (ISBN 978-2-7499-4844-7)
 Azakhou, Wellan Inc., 2021, 320 p.  (ISBN 978-2-924442-86-9)Réédité aux éditions Michel Lafon en 2022, 319 p.  (ISBN 978-2-7499-4845-4)
